--- a/RUDN/Importance/Varible_muatal_class_in_Eastern Europe.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Eastern Europe.xlsx
@@ -14,17 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="462">
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
   <si>
     <t>Labor force, total</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
     <t>Population, male</t>
   </si>
   <si>
@@ -52,42 +52,42 @@
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
     <t>Self-employed, male (% of male employment)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
     <t>Self-employed, total (% of total employment)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
@@ -100,37 +100,40 @@
     <t>Population, female (% of total)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
   </si>
   <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Population ages 15-64, female</t>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
     <t>Population ages 65 and above, male</t>
@@ -139,33 +142,30 @@
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
   </si>
   <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
@@ -178,157 +178,163 @@
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Male population 35-39</t>
   </si>
   <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
   </si>
   <si>
     <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
     <t>Own-account workers, male (% of males employed)</t>
   </si>
   <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
     <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+    <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
     <t>Female population 35-39</t>
   </si>
   <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
   </si>
   <si>
     <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
   </si>
   <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
     <t>Employment in industry, male (% of male employment)</t>
   </si>
   <si>
+    <t>Rural population</t>
+  </si>
+  <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
     <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
-    <t>Rural population</t>
+    <t>Children out of school, primary, male</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
@@ -337,33 +343,27 @@
     <t>Male population 40-44</t>
   </si>
   <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
@@ -373,1039 +373,1033 @@
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Male population 20-24</t>
   </si>
   <si>
     <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
     <t>Time-related underemployment, male (% of employment)</t>
   </si>
   <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
     <t>GINI index (World Bank estimate)</t>
   </si>
   <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
     <t>Employers, female (% of female employment)</t>
   </si>
   <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
     <t>Income share held by lowest 20%</t>
   </si>
   <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
     <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
   </si>
   <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
     <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
   </si>
   <si>
     <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
     <t>Net ODA provided, total (constant 2015 US$)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
   </si>
   <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
     <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
+    <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
     <t>Net intake rate in grade 1, male (% of official school-age population)</t>
   </si>
   <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
     <t>Educational attainment, some primary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
     <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
   </si>
   <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Region_code</t>
   </si>
   <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Region_code</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B465"/>
+  <dimension ref="A1:B463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1875,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.901110908574519</v>
+        <v>0.8977605463299261</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1883,7 +1877,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8977605463299261</v>
+        <v>0.8972189651651616</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1891,7 +1885,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8972189651651616</v>
+        <v>0.896172719388298</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1899,7 +1893,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.896172719388298</v>
+        <v>0.8938077950214054</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1915,7 +1909,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8914148087341884</v>
+        <v>0.8865343793345284</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1923,7 +1917,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8865343793345284</v>
+        <v>0.8798026905412626</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1931,7 +1925,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8798026905412626</v>
+        <v>0.8793955779649576</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1947,7 +1941,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8685329630158043</v>
+        <v>0.8774161109682279</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1955,7 +1949,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8660578980015907</v>
+        <v>0.8719368507946923</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1963,7 +1957,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8652366237887408</v>
+        <v>0.8660578980015907</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1979,7 +1973,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8574900707192006</v>
+        <v>0.8561609600150899</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2003,7 +1997,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8478526017104431</v>
+        <v>0.8438532356918462</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2011,7 +2005,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8438532356918462</v>
+        <v>0.8205622905259011</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2019,7 +2013,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8251763196591611</v>
+        <v>0.8196286849472163</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2027,7 +2021,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8196286849472163</v>
+        <v>0.8096128500091528</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2035,7 +2029,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7967923371886398</v>
+        <v>0.7959479091807504</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2043,7 +2037,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.7958552924878926</v>
+        <v>0.7940298352674842</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2051,7 +2045,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7940298352674842</v>
+        <v>0.7927701978867936</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2075,7 +2069,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7879830890968342</v>
+        <v>0.7864208271672197</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2083,7 +2077,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7864208271672197</v>
+        <v>0.7854189865327319</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2091,7 +2085,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.77433065247441</v>
+        <v>0.7753811737511414</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2099,7 +2093,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7729800753317679</v>
+        <v>0.77433065247441</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2107,7 +2101,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7698699293161548</v>
+        <v>0.7688134086651013</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2131,7 +2125,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7623077461077252</v>
+        <v>0.7643580780716885</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2139,7 +2133,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.7582382897403617</v>
+        <v>0.7570227070939326</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2147,7 +2141,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7537878400071809</v>
+        <v>0.7501113472384193</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2155,7 +2149,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7501113472384193</v>
+        <v>0.7484646797891152</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2163,7 +2157,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7484646797891152</v>
+        <v>0.743992591823555</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2171,7 +2165,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.743992591823555</v>
+        <v>0.7431346043539455</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2203,7 +2197,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7309156885419121</v>
+        <v>0.7388977438797366</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2211,7 +2205,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7292079659024944</v>
+        <v>0.7359557112077832</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2219,7 +2213,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7279233840213459</v>
+        <v>0.7311024408921261</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2227,7 +2221,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7256921499826836</v>
+        <v>0.7292079659024944</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2235,7 +2229,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7228148951045801</v>
+        <v>0.7279233840213459</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2243,7 +2237,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.7216404040041493</v>
+        <v>0.7261188561008489</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2283,7 +2277,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7129552835622763</v>
+        <v>0.7147968897181536</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2299,7 +2293,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.7099549022687004</v>
+        <v>0.7108729470452564</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2307,7 +2301,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.7072832034555128</v>
+        <v>0.7101473831361285</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2315,7 +2309,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.7071641484221245</v>
+        <v>0.7099549022687004</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2323,7 +2317,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.7067883507904227</v>
+        <v>0.7011383701516936</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2331,7 +2325,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7025487212199852</v>
+        <v>0.6991063035948755</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2339,7 +2333,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7011383701516936</v>
+        <v>0.6980295330375088</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2347,7 +2341,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6994276868625025</v>
+        <v>0.6953633040780343</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2355,7 +2349,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6991063035948755</v>
+        <v>0.692221329488921</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2363,7 +2357,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6973844543260688</v>
+        <v>0.6914802259924775</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2371,7 +2365,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6953633040780343</v>
+        <v>0.6906332185295212</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2379,7 +2373,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6887402930789037</v>
+        <v>0.6898324523404284</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2387,7 +2381,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6872148563668896</v>
+        <v>0.6887402930789037</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2395,7 +2389,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.6850102133104135</v>
+        <v>0.6884100953517098</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2403,7 +2397,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.6811503750337431</v>
+        <v>0.6856409094804428</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2411,7 +2405,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.6809747030067406</v>
+        <v>0.6849446037977629</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2419,7 +2413,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.6805004464160911</v>
+        <v>0.6811503750337431</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2427,7 +2421,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.6800830704036207</v>
+        <v>0.6805004464160911</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2443,7 +2437,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6793774213659931</v>
+        <v>0.6779936084710416</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2451,7 +2445,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6779936084710416</v>
+        <v>0.6746248967201356</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2467,7 +2461,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6712120427358199</v>
+        <v>0.673190820222858</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2475,7 +2469,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6708183606561227</v>
+        <v>0.6723044265184568</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2483,7 +2477,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.670743720911102</v>
+        <v>0.6721658829044546</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2491,7 +2485,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6692300510320457</v>
+        <v>0.6708183606561227</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2499,7 +2493,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6664790957042894</v>
+        <v>0.6692300510320457</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2507,7 +2501,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6642812852064339</v>
+        <v>0.6691048353492599</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2515,7 +2509,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6635095169415159</v>
+        <v>0.6642812852064339</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2531,7 +2525,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6623740578184374</v>
+        <v>0.6631249015569005</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2539,7 +2533,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.6623568967801288</v>
+        <v>0.6624517771954046</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2547,7 +2541,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6606832037864852</v>
+        <v>0.6623568967801288</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2555,7 +2549,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6594502003122487</v>
+        <v>0.6607714937158733</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2563,7 +2557,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6581101313484934</v>
+        <v>0.6606832037864852</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2571,7 +2565,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6571645983978598</v>
+        <v>0.6594502003122487</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2579,7 +2573,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.6552970230156889</v>
+        <v>0.6593131164433621</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2587,7 +2581,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.6525792319178423</v>
+        <v>0.6552970230156889</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2595,7 +2589,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.6511784158535645</v>
+        <v>0.6517779498665603</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2603,7 +2597,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.6500099909890216</v>
+        <v>0.645990580341917</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2611,7 +2605,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.645990580341917</v>
+        <v>0.6455694414945905</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2619,7 +2613,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.6362265689217954</v>
+        <v>0.6439088005128313</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2627,7 +2621,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.6358005912209328</v>
+        <v>0.6378636933263093</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2635,7 +2629,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.6346495094851017</v>
+        <v>0.6362265689217954</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2643,7 +2637,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.628767886299975</v>
+        <v>0.6358005912209328</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2651,7 +2645,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.6280571803947965</v>
+        <v>0.626526218377335</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2659,7 +2653,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.626526218377335</v>
+        <v>0.6241705239842472</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2667,7 +2661,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.6241705239842472</v>
+        <v>0.6240114559462946</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2683,7 +2677,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.6208063277411662</v>
+        <v>0.6195250981712075</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2691,7 +2685,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.6199838459270932</v>
+        <v>0.619282700368293</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2699,7 +2693,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.6195250981712075</v>
+        <v>0.616778717721965</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2723,7 +2717,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.6124413877358805</v>
+        <v>0.6155663877358803</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2731,7 +2725,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.6102893801511633</v>
+        <v>0.612151687257011</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2739,7 +2733,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.6077197110967831</v>
+        <v>0.610777958135222</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2747,7 +2741,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.6068117762763838</v>
+        <v>0.6102893801511633</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2755,7 +2749,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.6057792637236434</v>
+        <v>0.608143486039789</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2763,7 +2757,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.6038183539236777</v>
+        <v>0.606921921455565</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2771,7 +2765,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.6015576404567349</v>
+        <v>0.6068117762763838</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2779,7 +2773,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.6014452197764542</v>
+        <v>0.6057792637236434</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2787,7 +2781,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.5999989565999075</v>
+        <v>0.6015576404567349</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2795,7 +2789,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.5967443226271252</v>
+        <v>0.5952918058621828</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2803,7 +2797,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.5952918058621828</v>
+        <v>0.5952190862151829</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2811,7 +2805,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.5952190862151829</v>
+        <v>0.5941957651712302</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2819,7 +2813,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.5934102836343216</v>
+        <v>0.5934158135293854</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2827,7 +2821,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.593182529154751</v>
+        <v>0.5934102836343216</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2835,7 +2829,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.5916786721194918</v>
+        <v>0.5888218468681854</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2843,7 +2837,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.5898227641077161</v>
+        <v>0.5876209338106546</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2851,7 +2845,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.5888218468681854</v>
+        <v>0.5860681710204694</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2859,7 +2853,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.5878149018537386</v>
+        <v>0.5853558005947936</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2867,7 +2861,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.5876209338106546</v>
+        <v>0.5818181790441299</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2875,7 +2869,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.5853558005947936</v>
+        <v>0.5765899239687338</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2883,7 +2877,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.582863042815341</v>
+        <v>0.5750845091451149</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2891,7 +2885,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.5800616642139205</v>
+        <v>0.5733227828583152</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2899,7 +2893,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.5782896373502433</v>
+        <v>0.5724761941284506</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2907,7 +2901,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.5765899239687338</v>
+        <v>0.5662140115612337</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2915,7 +2909,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.5735023331809896</v>
+        <v>0.5661752893658585</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2923,7 +2917,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.5733227828583152</v>
+        <v>0.5655554017365061</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2931,7 +2925,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.5724299577568703</v>
+        <v>0.553206012952161</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2939,7 +2933,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.5661752893658585</v>
+        <v>0.5486481617946888</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2947,7 +2941,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5655554017365061</v>
+        <v>0.5477089565101907</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2955,7 +2949,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.5652019650642359</v>
+        <v>0.5474801282599302</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2963,7 +2957,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.553206012952161</v>
+        <v>0.5460423432884913</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2971,7 +2965,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.5518870700633045</v>
+        <v>0.545564752162907</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2979,7 +2973,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.5486481617946888</v>
+        <v>0.5427733353065458</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2987,7 +2981,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.5460423432884913</v>
+        <v>0.5421971011569757</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2995,7 +2989,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.5458576949491485</v>
+        <v>0.5416800951532497</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3003,7 +2997,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.545564752162907</v>
+        <v>0.5416402846588733</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3011,7 +3005,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.5423736532287058</v>
+        <v>0.5393814838053319</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3019,7 +3013,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.5416800951532497</v>
+        <v>0.5385169642144549</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3027,7 +3021,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.5416402846588733</v>
+        <v>0.5381922147019502</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3035,7 +3029,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.5404463690241663</v>
+        <v>0.5380157807623454</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3043,7 +3037,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.5401881955030898</v>
+        <v>0.5364845900126716</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3051,7 +3045,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.5385169642144549</v>
+        <v>0.5343061079488312</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3059,7 +3053,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.5374781320099129</v>
+        <v>0.5332387755228045</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3067,7 +3061,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.5370275046468072</v>
+        <v>0.5327523021705687</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3075,7 +3069,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.5328044827267953</v>
+        <v>0.5322431320442038</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3083,7 +3077,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.5322431320442038</v>
+        <v>0.5313244326880044</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3091,7 +3085,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.5313244326880044</v>
+        <v>0.5311455264036928</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3107,7 +3101,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.5289283932120799</v>
+        <v>0.5303769245797219</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3115,7 +3109,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.527469544753574</v>
+        <v>0.5298587012793647</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3123,7 +3117,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.5271256790604435</v>
+        <v>0.5289283932120799</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3131,7 +3125,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.5270064631491864</v>
+        <v>0.5271256790604435</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3147,7 +3141,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5259747880687862</v>
+        <v>0.5258689146100961</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3155,7 +3149,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.5258689146100961</v>
+        <v>0.5251895676291396</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3163,7 +3157,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.5251895676291396</v>
+        <v>0.5247032883015204</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3171,7 +3165,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.5247032883015204</v>
+        <v>0.5243394809948732</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3179,7 +3173,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.5243394809948732</v>
+        <v>0.5215142459673927</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3187,7 +3181,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.5230516597832002</v>
+        <v>0.5178713724745549</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3195,7 +3189,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.5215142459673927</v>
+        <v>0.5157059193083522</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3203,7 +3197,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.5189907955169804</v>
+        <v>0.5145221326340352</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3211,7 +3205,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.5185195149254329</v>
+        <v>0.5125948223019083</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3219,7 +3213,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.5178713724745549</v>
+        <v>0.5115822680324171</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3227,7 +3221,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.5172149272284245</v>
+        <v>0.5081532968944784</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3235,7 +3229,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.5157715538613585</v>
+        <v>0.5069307140832386</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3243,7 +3237,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.5157059193083522</v>
+        <v>0.5062375564541322</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3251,7 +3245,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.5125948223019083</v>
+        <v>0.5015313555172844</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3259,7 +3253,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.511685115003194</v>
+        <v>0.5014672162625575</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3267,7 +3261,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.5111478955967634</v>
+        <v>0.5009736965450442</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3275,7 +3269,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.5102531892391178</v>
+        <v>0.4998531956226562</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3283,7 +3277,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.5081532968944784</v>
+        <v>0.4990076215564698</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3291,7 +3285,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.5073200212729001</v>
+        <v>0.4985000822151067</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3299,7 +3293,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.5069307140832386</v>
+        <v>0.4978874399653188</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3307,7 +3301,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.5062375564541322</v>
+        <v>0.495712343460704</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3315,7 +3309,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.503181400568288</v>
+        <v>0.4951384010041606</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3323,7 +3317,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.5009736965450442</v>
+        <v>0.4937504391167793</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3331,7 +3325,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.4990519135713738</v>
+        <v>0.4899220904339781</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3339,7 +3333,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.4986621603937009</v>
+        <v>0.4884488365146025</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3347,7 +3341,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.4985000822151067</v>
+        <v>0.4869366639082675</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3355,7 +3349,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.4982848713556502</v>
+        <v>0.4867437105455212</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3363,7 +3357,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.495712343460704</v>
+        <v>0.485432719135092</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3371,7 +3365,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.4924827233484832</v>
+        <v>0.4839371862749484</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3379,7 +3373,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.4892478573913204</v>
+        <v>0.4837928169357115</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3387,7 +3381,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.4885950284327902</v>
+        <v>0.4819655774099572</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3395,7 +3389,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.4884488365146025</v>
+        <v>0.481843082036161</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3403,7 +3397,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.4879820674476458</v>
+        <v>0.4813265688750954</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3411,7 +3405,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.4877315933891253</v>
+        <v>0.4809247837672079</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3419,7 +3413,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.4869366639082675</v>
+        <v>0.4803678182207327</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3427,7 +3421,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.485432719135092</v>
+        <v>0.4765265509200138</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3435,7 +3429,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.4851084548919276</v>
+        <v>0.4758524050421027</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3443,7 +3437,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.4836276784825098</v>
+        <v>0.473781333861748</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3451,7 +3445,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.4813265688750954</v>
+        <v>0.4725338179918981</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3459,7 +3453,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.4809247837672079</v>
+        <v>0.47189219825577</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3467,7 +3461,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.4803678182207327</v>
+        <v>0.4698544668033344</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3475,7 +3469,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.4758524050421027</v>
+        <v>0.4692413892049998</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3483,7 +3477,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.4725338179918981</v>
+        <v>0.466482478092165</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3491,7 +3485,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.469051689983909</v>
+        <v>0.4656706341863552</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3499,7 +3493,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.4668141408822353</v>
+        <v>0.4626681478905996</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3507,7 +3501,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.466482478092165</v>
+        <v>0.4601231185553378</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3515,7 +3509,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.4656706341863552</v>
+        <v>0.4592707661929529</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3523,7 +3517,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.4626681478905996</v>
+        <v>0.4586497170692845</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3531,7 +3525,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.4592707661929529</v>
+        <v>0.4558261517457189</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3539,7 +3533,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.4586497170692845</v>
+        <v>0.4553788493040491</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3547,7 +3541,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.4567888043966455</v>
+        <v>0.4540544454848372</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3555,7 +3549,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.4558261517457189</v>
+        <v>0.4528734220026107</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3563,7 +3557,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.4528734220026107</v>
+        <v>0.4510307917259218</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3571,7 +3565,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.4527744705872876</v>
+        <v>0.4508591786548655</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3579,7 +3573,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.4508591786548655</v>
+        <v>0.4496689744402771</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3587,7 +3581,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.4503465924977772</v>
+        <v>0.4488281485994514</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3595,7 +3589,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.4471143936829249</v>
+        <v>0.4463483086988713</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3603,7 +3597,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.4423001593734273</v>
+        <v>0.4453233423239802</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3611,7 +3605,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.441411389874423</v>
+        <v>0.4446355106470539</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3619,7 +3613,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.441411389874423</v>
+        <v>0.4423001593734273</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3627,7 +3621,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.4411358409071435</v>
+        <v>0.4421711304039719</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3635,7 +3629,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.4406092126881362</v>
+        <v>0.441411389874423</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3643,7 +3637,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.4403893281105147</v>
+        <v>0.441411389874423</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3651,7 +3645,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.4383518771819683</v>
+        <v>0.4406092126881362</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3659,7 +3653,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.4373990193866741</v>
+        <v>0.4377010115829656</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3667,7 +3661,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.4360681031613771</v>
+        <v>0.4373990193866741</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3675,7 +3669,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.4352873243775333</v>
+        <v>0.4361014520769171</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3683,7 +3677,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.433582661909593</v>
+        <v>0.4345720939542628</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3691,7 +3685,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.4335037178858867</v>
+        <v>0.433582661909593</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3699,7 +3693,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.4331984675806364</v>
+        <v>0.4335037178858867</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3707,7 +3701,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.4293772600446242</v>
+        <v>0.4331777896489764</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3723,7 +3717,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.425764598004893</v>
+        <v>0.4286380259987845</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3731,7 +3725,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.4249789886021755</v>
+        <v>0.425764598004893</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3739,7 +3733,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.4240576188962804</v>
+        <v>0.4249789886021755</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3747,7 +3741,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.4227908416247188</v>
+        <v>0.4240576188962804</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3755,7 +3749,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.4227408026219055</v>
+        <v>0.422441193974229</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3771,7 +3765,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.4183111599815754</v>
+        <v>0.4205964001191449</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3779,7 +3773,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.4171882983896922</v>
+        <v>0.4195857134195906</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3787,7 +3781,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.417041879313182</v>
+        <v>0.4132728284010005</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3795,7 +3789,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.4149688826421412</v>
+        <v>0.412568096054968</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3803,7 +3797,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.4132728284010005</v>
+        <v>0.4077183651890457</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3811,7 +3805,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.4077183651890457</v>
+        <v>0.4070692507706446</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3819,7 +3813,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.4015241926385267</v>
+        <v>0.405459716903519</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3843,7 +3837,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.3997081093294541</v>
+        <v>0.3984917361558442</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3851,7 +3845,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.3965350357294157</v>
+        <v>0.3971111082824834</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3859,7 +3853,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.3958799619110389</v>
+        <v>0.3965350357294157</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3867,7 +3861,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.3923803857710093</v>
+        <v>0.3958799619110389</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3875,7 +3869,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.3905142122397749</v>
+        <v>0.3952727516064831</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3883,7 +3877,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.3862132983290578</v>
+        <v>0.3949368073349404</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3891,7 +3885,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.383889837430571</v>
+        <v>0.3896407727217521</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3899,7 +3893,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.381488502785764</v>
+        <v>0.38764324563401</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3907,7 +3901,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.3813353835862208</v>
+        <v>0.3862132983290578</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3915,7 +3909,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.3792501913052968</v>
+        <v>0.3850733391851164</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3923,7 +3917,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.3791413932822425</v>
+        <v>0.3792501913052968</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3931,7 +3925,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.3779471119870683</v>
+        <v>0.3788853299815094</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3939,7 +3933,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.3767007997585248</v>
+        <v>0.3777393386405234</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3947,7 +3941,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.3766505053528038</v>
+        <v>0.3767007997585248</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3955,7 +3949,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.3754468785057941</v>
+        <v>0.3766505053528038</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3963,7 +3957,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.3745354904856515</v>
+        <v>0.3754468785057941</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3979,7 +3973,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.3731189219286863</v>
+        <v>0.373201607614877</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3987,7 +3981,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.3719659512736764</v>
+        <v>0.3731189219286863</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3995,7 +3989,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.3667618155533463</v>
+        <v>0.3719659512736764</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4003,7 +3997,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.3659242869696282</v>
+        <v>0.3690209436402021</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4011,7 +4005,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.3655509690482333</v>
+        <v>0.3683898997612922</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4019,7 +4013,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.3646661661625819</v>
+        <v>0.3675478063246345</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4027,7 +4021,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.3642956632680407</v>
+        <v>0.3663332223969458</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4035,7 +4029,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.3642931684338151</v>
+        <v>0.3662187401911174</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4043,7 +4037,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.3629840296188001</v>
+        <v>0.3661445868164479</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4051,7 +4045,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.3629642889799356</v>
+        <v>0.3655509690482333</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4059,7 +4053,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.3611436203323439</v>
+        <v>0.3646661661625819</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4067,7 +4061,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.3598259054977666</v>
+        <v>0.3642931684338151</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4075,7 +4069,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.3567450590701693</v>
+        <v>0.3635204408157819</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4083,7 +4077,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.3507991962319494</v>
+        <v>0.3629642889799356</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4091,7 +4085,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.3479078041960739</v>
+        <v>0.3507991962319494</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4099,7 +4093,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.3468496573208366</v>
+        <v>0.3484969464173622</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4107,7 +4101,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.3461771775110547</v>
+        <v>0.3481565424203745</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4115,7 +4109,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.345151971149384</v>
+        <v>0.3480782518294521</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4123,7 +4117,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.3432067776984002</v>
+        <v>0.3461771775110547</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4131,7 +4125,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.3386994159964878</v>
+        <v>0.345151971149384</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4139,7 +4133,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.3385309392409359</v>
+        <v>0.3436166503052285</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4147,7 +4141,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.3372391934982892</v>
+        <v>0.3432067776984002</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4155,7 +4149,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.3336399214325823</v>
+        <v>0.3396562768587328</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4163,7 +4157,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.332952183536583</v>
+        <v>0.3386994159964878</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4171,7 +4165,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.3317408364115637</v>
+        <v>0.3385309392409359</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4179,7 +4173,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.3308585943193583</v>
+        <v>0.3339827377094686</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4187,7 +4181,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.3302460857088476</v>
+        <v>0.3336399214325823</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4195,7 +4189,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.3302409797570818</v>
+        <v>0.332952183536583</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4203,7 +4197,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.3284923354597868</v>
+        <v>0.3327229006730108</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4211,7 +4205,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.3267362324267273</v>
+        <v>0.3316051834092681</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4219,7 +4213,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.3239344964470878</v>
+        <v>0.3308585943193583</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4227,7 +4221,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.3166121626785765</v>
+        <v>0.3285617093503752</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4235,7 +4229,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.3148215352179491</v>
+        <v>0.3225143163642412</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4243,7 +4237,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.3134743769959725</v>
+        <v>0.3221854803548625</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4251,7 +4245,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.3119851403894669</v>
+        <v>0.3166121626785765</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4259,7 +4253,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.3116473539667337</v>
+        <v>0.3139575704596427</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4267,7 +4261,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.3103516379664781</v>
+        <v>0.3111072517863598</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4275,7 +4269,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.3096358377704072</v>
+        <v>0.3108541392805564</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4283,7 +4277,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.3080332736678431</v>
+        <v>0.3097439422075525</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4291,7 +4285,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.3076557229584158</v>
+        <v>0.3096358377704072</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4299,7 +4293,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.3076557229584158</v>
+        <v>0.309149714889555</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4307,7 +4301,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.3071882200354805</v>
+        <v>0.3089936873980144</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4315,7 +4309,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.3068921592956471</v>
+        <v>0.3080332736678431</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4323,7 +4317,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.3066746260711535</v>
+        <v>0.3077999449741688</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4331,7 +4325,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.3066002707890687</v>
+        <v>0.3076557229584158</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4339,7 +4333,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.3064756714183077</v>
+        <v>0.3076557229584158</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4347,7 +4341,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.306266062190286</v>
+        <v>0.3046854414418854</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4355,7 +4349,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.3051508045952009</v>
+        <v>0.3011615020714071</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4363,7 +4357,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.2990468668470159</v>
+        <v>0.2987032344418064</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4371,7 +4365,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.2972855910814749</v>
+        <v>0.2970035140586205</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4379,7 +4373,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.2970281317633499</v>
+        <v>0.2969147031294022</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4387,7 +4381,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.2962022320073385</v>
+        <v>0.2962780885760481</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4403,7 +4397,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.2953578282807876</v>
+        <v>0.2944631506161761</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4419,7 +4413,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.2921980812837992</v>
+        <v>0.2915540471865703</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4427,7 +4421,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.2920379145047585</v>
+        <v>0.2898654252522419</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4435,7 +4429,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.2903257784064726</v>
+        <v>0.2887813976724996</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4443,7 +4437,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.2898654252522419</v>
+        <v>0.2840922613678567</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4451,7 +4445,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.2876271807970303</v>
+        <v>0.2839290091660815</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4459,7 +4453,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.2845590614968898</v>
+        <v>0.2837155440762049</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4467,7 +4461,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.2839290091660815</v>
+        <v>0.282744148001437</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4491,7 +4485,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.279067179323953</v>
+        <v>0.2804690741827591</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4499,7 +4493,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.2700890501948705</v>
+        <v>0.2766581831939394</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4507,7 +4501,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.2696749733659627</v>
+        <v>0.2745026858819737</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4515,7 +4509,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.264035580803085</v>
+        <v>0.2739762097912388</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4523,7 +4517,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.263677447566103</v>
+        <v>0.2700890501948705</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4531,7 +4525,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.2632318717574671</v>
+        <v>0.264196598566395</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4539,7 +4533,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.2623129914834073</v>
+        <v>0.264035580803085</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4547,7 +4541,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.2593194734561022</v>
+        <v>0.263677447566103</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4555,7 +4549,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.2567925894188128</v>
+        <v>0.2634362735463229</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4563,7 +4557,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.2563566474269423</v>
+        <v>0.2629663159971902</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4571,7 +4565,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.2558342937728719</v>
+        <v>0.2590548742732339</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4579,7 +4573,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.2548339530200969</v>
+        <v>0.2581642928541128</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4587,7 +4581,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.2537450315426293</v>
+        <v>0.2565960054779597</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4595,7 +4589,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.2527695167957016</v>
+        <v>0.2565938061362596</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4603,7 +4597,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.2523076672568849</v>
+        <v>0.2546171858263913</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4611,7 +4605,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.2500582685617991</v>
+        <v>0.2540956729859194</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4619,7 +4613,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.248072242877424</v>
+        <v>0.2536874475832755</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4627,7 +4621,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.2463270781172133</v>
+        <v>0.2500582685617991</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4635,7 +4629,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.243440236958371</v>
+        <v>0.2495040061801017</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4643,7 +4637,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.2420302313563387</v>
+        <v>0.247552386591223</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4651,7 +4645,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.2412770661466164</v>
+        <v>0.2463270781172133</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4659,7 +4653,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.2361868854579676</v>
+        <v>0.245438829557511</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4667,7 +4661,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.2360106860357616</v>
+        <v>0.2431200221326384</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4675,7 +4669,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.2354884492787621</v>
+        <v>0.2430317484587687</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4683,7 +4677,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.2330299402529556</v>
+        <v>0.2423386552200433</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4691,7 +4685,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.2330260650318314</v>
+        <v>0.2412770661466164</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4699,7 +4693,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.2330260650318314</v>
+        <v>0.2361868854579676</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4707,7 +4701,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.2320580597139776</v>
+        <v>0.2354884492787621</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4715,7 +4709,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.2319361478618407</v>
+        <v>0.2349824311842368</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4723,7 +4717,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.2318840604875509</v>
+        <v>0.2337067582376764</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4731,7 +4725,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.2298910133954915</v>
+        <v>0.2336172708829918</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4739,7 +4733,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.2284388967061242</v>
+        <v>0.2330299402529556</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4747,7 +4741,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.2266530348102722</v>
+        <v>0.2330260650318314</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4755,7 +4749,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.2250479610291258</v>
+        <v>0.2330260650318314</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4763,7 +4757,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.2247345690309817</v>
+        <v>0.2319361478618407</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4771,7 +4765,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.2243512949439452</v>
+        <v>0.2309332671587916</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4779,7 +4773,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.2242723540601943</v>
+        <v>0.2302319540243845</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4787,7 +4781,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.2217348172929208</v>
+        <v>0.2277564625026103</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4795,7 +4789,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.2204092223916669</v>
+        <v>0.2262222688102962</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4803,7 +4797,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.2194210756688246</v>
+        <v>0.2250479610291258</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4811,7 +4805,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.2187938800236746</v>
+        <v>0.2243512949439452</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4819,7 +4813,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.2186784359647649</v>
+        <v>0.2242723540601943</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4827,7 +4821,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.2163826101684847</v>
+        <v>0.2204092223916669</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4851,7 +4845,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.2144919192838093</v>
+        <v>0.2154113118497791</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4859,7 +4853,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.2141991024043219</v>
+        <v>0.2134845897045357</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4867,7 +4861,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.2138024663750313</v>
+        <v>0.2111231425605886</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4875,7 +4869,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.2111231425605886</v>
+        <v>0.207982737981848</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4883,7 +4877,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.2086584801887421</v>
+        <v>0.2027035808644555</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4891,7 +4885,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.2071002564927489</v>
+        <v>0.2014605464888277</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4899,7 +4893,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.206381250930239</v>
+        <v>0.2008949111256304</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4907,7 +4901,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.2012143688760921</v>
+        <v>0.2007036788999041</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4915,7 +4909,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.2007036788999041</v>
+        <v>0.1971557151842027</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4923,7 +4917,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.1989238509478031</v>
+        <v>0.197066640915069</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4931,7 +4925,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.197066640915069</v>
+        <v>0.1949626745234361</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4947,7 +4941,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.1912589397628746</v>
+        <v>0.1926331688219807</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4955,7 +4949,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.1896164794456991</v>
+        <v>0.1912589397628746</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4963,7 +4957,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.1856361565801459</v>
+        <v>0.1840335924775816</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4971,7 +4965,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.1820351779206029</v>
+        <v>0.1835631187580691</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4979,7 +4973,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.1817919734773203</v>
+        <v>0.1820351779206029</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4987,7 +4981,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.1657741148032932</v>
+        <v>0.1817919734773203</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4995,7 +4989,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.1641454566616327</v>
+        <v>0.166670787574966</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5003,7 +4997,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.1639078827348108</v>
+        <v>0.1641454566616327</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5011,7 +5005,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.162426695632184</v>
+        <v>0.1639078827348108</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5019,7 +5013,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.1598818255933068</v>
+        <v>0.1622654201193763</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5027,7 +5021,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.1577644668415348</v>
+        <v>0.1619926510629139</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5035,7 +5029,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.1540147071688325</v>
+        <v>0.1598818255933068</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5043,7 +5037,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.1527624400160577</v>
+        <v>0.1589050709866384</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5051,7 +5045,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.1506508522744512</v>
+        <v>0.1577644668415348</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5059,7 +5053,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.15022186547618</v>
+        <v>0.1562904070952214</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5067,7 +5061,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.1496220291701387</v>
+        <v>0.1531406440199061</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5075,7 +5069,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.145489298351307</v>
+        <v>0.1530098746536601</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5083,7 +5077,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.1454294599804924</v>
+        <v>0.1527624400160577</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5091,7 +5085,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.1441856448289034</v>
+        <v>0.1506508522744512</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5099,7 +5093,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.1438904005742221</v>
+        <v>0.145489298351307</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5131,7 +5125,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.1343415666009644</v>
+        <v>0.134649075765416</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5139,7 +5133,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.1319456143330811</v>
+        <v>0.1343415666009644</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5147,7 +5141,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.1295637426210003</v>
+        <v>0.1319456143330811</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5155,7 +5149,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.1290630380196054</v>
+        <v>0.1295637426210003</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5163,7 +5157,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.1265748668137059</v>
+        <v>0.1239343931274735</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5171,7 +5165,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.1239343931274735</v>
+        <v>0.1199992158870211</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5179,7 +5173,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.1199992158870211</v>
+        <v>0.1184112978817877</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5187,7 +5181,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.1190600565936619</v>
+        <v>0.1152846016150901</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5195,7 +5189,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.1184112978817877</v>
+        <v>0.1124098229598292</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5203,7 +5197,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.1124098229598292</v>
+        <v>0.1059031009309728</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5211,7 +5205,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.1111036058966561</v>
+        <v>0.09931801992893918</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5219,7 +5213,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.1072252227196147</v>
+        <v>0.09872691675560996</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5227,7 +5221,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.09931801992893918</v>
+        <v>0.0970482705088247</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5243,7 +5237,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.09483497536366858</v>
+        <v>0.09391879206951592</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5251,7 +5245,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.09391879206951592</v>
+        <v>0.0920296663818545</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5259,7 +5253,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.0920296663818545</v>
+        <v>0.08168169581456253</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5267,7 +5261,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.089774410257357</v>
+        <v>0.08168169581456253</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5275,7 +5269,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.08610055965783436</v>
+        <v>0.07936520760042209</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5283,7 +5277,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.08168169581456253</v>
+        <v>0.0792862194189341</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5291,7 +5285,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.08168169581456253</v>
+        <v>0.07812290100522845</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5299,7 +5293,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.07936520760042209</v>
+        <v>0.0770684052941899</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5307,7 +5301,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.0792862194189341</v>
+        <v>0.07222687714128773</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5315,7 +5309,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.0770684052941899</v>
+        <v>0.07045402050282656</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5323,7 +5317,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.07297381171177819</v>
+        <v>0.07001937520479951</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5331,7 +5325,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.07275910637970151</v>
+        <v>0.06943021234513425</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5339,7 +5333,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.07045402050282656</v>
+        <v>0.06749819126172896</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5347,7 +5341,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.06749819126172896</v>
+        <v>0.066133837188596</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5355,7 +5349,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.066133837188596</v>
+        <v>0.05259692277069283</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5363,7 +5357,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.05274604003932337</v>
+        <v>0.05212404054072151</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5371,7 +5365,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.05212404054072151</v>
+        <v>0.05053127911644006</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5379,7 +5373,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.05053127911644006</v>
+        <v>0.04934669663914426</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5387,7 +5381,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.04934669663914426</v>
+        <v>0.04766944790762828</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5395,7 +5389,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.04766944790762828</v>
+        <v>0.04140252584923787</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5403,7 +5397,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.04751618930222268</v>
+        <v>0.03938230871620352</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5411,7 +5405,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.03918440046393989</v>
+        <v>0.03542123895959604</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5419,7 +5413,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.03914768913291278</v>
+        <v>0.03201738743901794</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5427,7 +5421,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.03542123895959604</v>
+        <v>0.03169245173532209</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5435,7 +5429,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.03201738743901794</v>
+        <v>0.0291807367764354</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5443,7 +5437,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.03169245173532209</v>
+        <v>0.0228917503343895</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5451,7 +5445,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.0291807367764354</v>
+        <v>0.01472491651115315</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5459,7 +5453,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.0228917503343895</v>
+        <v>0.00812995103514913</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5467,23 +5461,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.01992246416058441</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2">
-      <c r="A464" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B464">
-        <v>0.01556649328820381</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2">
-      <c r="A465" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B465">
-        <v>0.01365654044277709</v>
+        <v>0.003811013795935292</v>
       </c>
     </row>
   </sheetData>
